--- a/theme parks market shares.xlsx
+++ b/theme parks market shares.xlsx
@@ -9,14 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{BCF4BF06-AE9D-4B81-A996-E23FFD9EAA86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{BCF4BF06-AE9D-4B81-A996-E23FFD9EAA86}"/>
   </bookViews>
   <sheets>
     <sheet name="market shares" sheetId="1" r:id="rId1"/>
-    <sheet name="plot groups" sheetId="6" r:id="rId2"/>
-    <sheet name="FL market shares" sheetId="3" r:id="rId3"/>
-    <sheet name="plot FL" sheetId="7" r:id="rId4"/>
-    <sheet name="FL marketshares parks" sheetId="5" r:id="rId5"/>
+    <sheet name="FL market shares" sheetId="3" r:id="rId2"/>
+    <sheet name="FL marketshares parks" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Disney</t>
   </si>
@@ -518,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23711B8-AD7A-4C77-A63B-E4F9D0FF1EB3}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1586,115 +1584,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4050472C-EEF8-4FCF-9A96-25D2D539D1B2}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="4">
-        <v>41.421207658321066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="4">
-        <v>41.107974594213125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="4">
-        <v>38.562091503267979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="4">
-        <v>38.606158833063212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="4">
-        <v>37.558393023980067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="4">
-        <v>36.070834323746134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="4">
-        <v>35.344829995277266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="4">
-        <v>36.098893467290146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="4">
-        <v>34.264448179900462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="4">
-        <v>33.105272760445182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="4">
-        <v>32.03595068759455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B101E77-44EB-4827-BEE1-8BED483219D8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -1889,115 +1778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D05588-DD3D-40E3-86D8-1D0CC3553FFF}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B2">
-        <v>67.824387310178921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B3">
-        <v>68.27956989247312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B4">
-        <v>68.317635125344154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B5">
-        <v>70.316708598490479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B6">
-        <v>68.980369176677414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B7">
-        <v>67.157799385730257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B8">
-        <v>67.009711151938774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B9">
-        <v>67.277363935306354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B10">
-        <v>67.127305912261249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B11">
-        <v>66.350710900473928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B12">
-        <v>65.795145607288944</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628CDB17-AD95-45CE-9FC3-5BFF6AF8E3D6}">
   <dimension ref="A1:L9"/>
   <sheetViews>
